--- a/InputData/elec/MOfEDS/Manual Override for Elec Dispatch Shareweights.xlsx
+++ b/InputData/elec/MOfEDS/Manual Override for Elec Dispatch Shareweights.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\MOfEDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us-analysis\InputData\elec\MOfEDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC387BE5-DC79-427F-B7DB-D3B25D54F9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFB6AA2-2DFC-49FF-908C-77AAF757AF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21315" yWindow="915" windowWidth="27495" windowHeight="19425" xr2:uid="{5214CE78-272C-4AF8-83F6-52B9106E2D78}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{5214CE78-272C-4AF8-83F6-52B9106E2D78}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="MOfEDS-preexisting-retiring" sheetId="2" r:id="rId2"/>
-    <sheet name="MOfEDS-preexisting-nonretiring" sheetId="3" r:id="rId3"/>
-    <sheet name="MOfEDS-newly-built" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="MOfEDS-preexisting-retiring" sheetId="2" r:id="rId3"/>
+    <sheet name="MOfEDS-preexisting-nonretiring" sheetId="3" r:id="rId4"/>
+    <sheet name="MOfEDS-newly-built" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>MOfEDS Manual Override for Electricity Dispatch Shareweights</t>
   </si>
@@ -194,6 +195,15 @@
   </si>
   <si>
     <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Lignite</t>
   </si>
 </sst>
 </file>
@@ -564,16 +574,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06577680-F30E-4654-AE44-C7400A528121}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -581,32 +591,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -620,27 +630,27 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -654,42 +664,42 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -701,17 +711,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E636F4FF-3519-4D1A-B2AD-0AD071209429}">
-  <dimension ref="A1:AF17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550F743B-A73A-4334-B3B2-051C4ACD64B5}">
+  <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:AF4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -806,110 +818,110 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="L2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="M2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="O2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="P2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="R2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="S2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="T2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="U2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="V2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="AD2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="AE2">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="AF2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="C3">
         <v>-1</v>
@@ -1002,1376 +1014,102 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>-1</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE4">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AF4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
-      <c r="I5">
-        <v>-1</v>
-      </c>
-      <c r="J5">
-        <v>-1</v>
-      </c>
-      <c r="K5">
-        <v>-1</v>
-      </c>
-      <c r="L5">
-        <v>-1</v>
-      </c>
-      <c r="M5">
-        <v>-1</v>
-      </c>
-      <c r="N5">
-        <v>-1</v>
-      </c>
-      <c r="O5">
-        <v>-1</v>
-      </c>
-      <c r="P5">
-        <v>-1</v>
-      </c>
-      <c r="Q5">
-        <v>-1</v>
-      </c>
-      <c r="R5">
-        <v>-1</v>
-      </c>
-      <c r="S5">
-        <v>-1</v>
-      </c>
-      <c r="T5">
-        <v>-1</v>
-      </c>
-      <c r="U5">
-        <v>-1</v>
-      </c>
-      <c r="V5">
-        <v>-1</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>-1</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>-1</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
-      </c>
-      <c r="AD5">
-        <v>-1</v>
-      </c>
-      <c r="AE5">
-        <v>-1</v>
-      </c>
-      <c r="AF5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-      <c r="H6">
-        <v>-1</v>
-      </c>
-      <c r="I6">
-        <v>-1</v>
-      </c>
-      <c r="J6">
-        <v>-1</v>
-      </c>
-      <c r="K6">
-        <v>-1</v>
-      </c>
-      <c r="L6">
-        <v>-1</v>
-      </c>
-      <c r="M6">
-        <v>-1</v>
-      </c>
-      <c r="N6">
-        <v>-1</v>
-      </c>
-      <c r="O6">
-        <v>-1</v>
-      </c>
-      <c r="P6">
-        <v>-1</v>
-      </c>
-      <c r="Q6">
-        <v>-1</v>
-      </c>
-      <c r="R6">
-        <v>-1</v>
-      </c>
-      <c r="S6">
-        <v>-1</v>
-      </c>
-      <c r="T6">
-        <v>-1</v>
-      </c>
-      <c r="U6">
-        <v>-1</v>
-      </c>
-      <c r="V6">
-        <v>-1</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>-1</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
-      <c r="Z6">
-        <v>-1</v>
-      </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>-1</v>
-      </c>
-      <c r="AC6">
-        <v>-1</v>
-      </c>
-      <c r="AD6">
-        <v>-1</v>
-      </c>
-      <c r="AE6">
-        <v>-1</v>
-      </c>
-      <c r="AF6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="H7">
-        <v>-1</v>
-      </c>
-      <c r="I7">
-        <v>-1</v>
-      </c>
-      <c r="J7">
-        <v>-1</v>
-      </c>
-      <c r="K7">
-        <v>-1</v>
-      </c>
-      <c r="L7">
-        <v>-1</v>
-      </c>
-      <c r="M7">
-        <v>-1</v>
-      </c>
-      <c r="N7">
-        <v>-1</v>
-      </c>
-      <c r="O7">
-        <v>-1</v>
-      </c>
-      <c r="P7">
-        <v>-1</v>
-      </c>
-      <c r="Q7">
-        <v>-1</v>
-      </c>
-      <c r="R7">
-        <v>-1</v>
-      </c>
-      <c r="S7">
-        <v>-1</v>
-      </c>
-      <c r="T7">
-        <v>-1</v>
-      </c>
-      <c r="U7">
-        <v>-1</v>
-      </c>
-      <c r="V7">
-        <v>-1</v>
-      </c>
-      <c r="W7">
-        <v>-1</v>
-      </c>
-      <c r="X7">
-        <v>-1</v>
-      </c>
-      <c r="Y7">
-        <v>-1</v>
-      </c>
-      <c r="Z7">
-        <v>-1</v>
-      </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
-      <c r="AC7">
-        <v>-1</v>
-      </c>
-      <c r="AD7">
-        <v>-1</v>
-      </c>
-      <c r="AE7">
-        <v>-1</v>
-      </c>
-      <c r="AF7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
-      <c r="I8">
-        <v>-1</v>
-      </c>
-      <c r="J8">
-        <v>-1</v>
-      </c>
-      <c r="K8">
-        <v>-1</v>
-      </c>
-      <c r="L8">
-        <v>-1</v>
-      </c>
-      <c r="M8">
-        <v>-1</v>
-      </c>
-      <c r="N8">
-        <v>-1</v>
-      </c>
-      <c r="O8">
-        <v>-1</v>
-      </c>
-      <c r="P8">
-        <v>-1</v>
-      </c>
-      <c r="Q8">
-        <v>-1</v>
-      </c>
-      <c r="R8">
-        <v>-1</v>
-      </c>
-      <c r="S8">
-        <v>-1</v>
-      </c>
-      <c r="T8">
-        <v>-1</v>
-      </c>
-      <c r="U8">
-        <v>-1</v>
-      </c>
-      <c r="V8">
-        <v>-1</v>
-      </c>
-      <c r="W8">
-        <v>-1</v>
-      </c>
-      <c r="X8">
-        <v>-1</v>
-      </c>
-      <c r="Y8">
-        <v>-1</v>
-      </c>
-      <c r="Z8">
-        <v>-1</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
-      <c r="AC8">
-        <v>-1</v>
-      </c>
-      <c r="AD8">
-        <v>-1</v>
-      </c>
-      <c r="AE8">
-        <v>-1</v>
-      </c>
-      <c r="AF8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-      <c r="H9">
-        <v>-1</v>
-      </c>
-      <c r="I9">
-        <v>-1</v>
-      </c>
-      <c r="J9">
-        <v>-1</v>
-      </c>
-      <c r="K9">
-        <v>-1</v>
-      </c>
-      <c r="L9">
-        <v>-1</v>
-      </c>
-      <c r="M9">
-        <v>-1</v>
-      </c>
-      <c r="N9">
-        <v>-1</v>
-      </c>
-      <c r="O9">
-        <v>-1</v>
-      </c>
-      <c r="P9">
-        <v>-1</v>
-      </c>
-      <c r="Q9">
-        <v>-1</v>
-      </c>
-      <c r="R9">
-        <v>-1</v>
-      </c>
-      <c r="S9">
-        <v>-1</v>
-      </c>
-      <c r="T9">
-        <v>-1</v>
-      </c>
-      <c r="U9">
-        <v>-1</v>
-      </c>
-      <c r="V9">
-        <v>-1</v>
-      </c>
-      <c r="W9">
-        <v>-1</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
-      <c r="Z9">
-        <v>-1</v>
-      </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
-      </c>
-      <c r="AD9">
-        <v>-1</v>
-      </c>
-      <c r="AE9">
-        <v>-1</v>
-      </c>
-      <c r="AF9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10">
-        <v>-1</v>
-      </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="E10">
-        <v>-1</v>
-      </c>
-      <c r="F10">
-        <v>-1</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
-      <c r="I10">
-        <v>-1</v>
-      </c>
-      <c r="J10">
-        <v>-1</v>
-      </c>
-      <c r="K10">
-        <v>-1</v>
-      </c>
-      <c r="L10">
-        <v>-1</v>
-      </c>
-      <c r="M10">
-        <v>-1</v>
-      </c>
-      <c r="N10">
-        <v>-1</v>
-      </c>
-      <c r="O10">
-        <v>-1</v>
-      </c>
-      <c r="P10">
-        <v>-1</v>
-      </c>
-      <c r="Q10">
-        <v>-1</v>
-      </c>
-      <c r="R10">
-        <v>-1</v>
-      </c>
-      <c r="S10">
-        <v>-1</v>
-      </c>
-      <c r="T10">
-        <v>-1</v>
-      </c>
-      <c r="U10">
-        <v>-1</v>
-      </c>
-      <c r="V10">
-        <v>-1</v>
-      </c>
-      <c r="W10">
-        <v>-1</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>-1</v>
-      </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
-      <c r="AB10">
-        <v>-1</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
-      </c>
-      <c r="AD10">
-        <v>-1</v>
-      </c>
-      <c r="AE10">
-        <v>-1</v>
-      </c>
-      <c r="AF10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>-1</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11">
-        <v>-1</v>
-      </c>
-      <c r="F11">
-        <v>-1</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-      <c r="H11">
-        <v>-1</v>
-      </c>
-      <c r="I11">
-        <v>-1</v>
-      </c>
-      <c r="J11">
-        <v>-1</v>
-      </c>
-      <c r="K11">
-        <v>-1</v>
-      </c>
-      <c r="L11">
-        <v>-1</v>
-      </c>
-      <c r="M11">
-        <v>-1</v>
-      </c>
-      <c r="N11">
-        <v>-1</v>
-      </c>
-      <c r="O11">
-        <v>-1</v>
-      </c>
-      <c r="P11">
-        <v>-1</v>
-      </c>
-      <c r="Q11">
-        <v>-1</v>
-      </c>
-      <c r="R11">
-        <v>-1</v>
-      </c>
-      <c r="S11">
-        <v>-1</v>
-      </c>
-      <c r="T11">
-        <v>-1</v>
-      </c>
-      <c r="U11">
-        <v>-1</v>
-      </c>
-      <c r="V11">
-        <v>-1</v>
-      </c>
-      <c r="W11">
-        <v>-1</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
-        <v>-1</v>
-      </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
-      <c r="AB11">
-        <v>-1</v>
-      </c>
-      <c r="AC11">
-        <v>-1</v>
-      </c>
-      <c r="AD11">
-        <v>-1</v>
-      </c>
-      <c r="AE11">
-        <v>-1</v>
-      </c>
-      <c r="AF11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>-1</v>
-      </c>
-      <c r="C12">
-        <v>-1</v>
-      </c>
-      <c r="D12">
-        <v>-1</v>
-      </c>
-      <c r="E12">
-        <v>-1</v>
-      </c>
-      <c r="F12">
-        <v>-1</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-      <c r="H12">
-        <v>-1</v>
-      </c>
-      <c r="I12">
-        <v>-1</v>
-      </c>
-      <c r="J12">
-        <v>-1</v>
-      </c>
-      <c r="K12">
-        <v>-1</v>
-      </c>
-      <c r="L12">
-        <v>-1</v>
-      </c>
-      <c r="M12">
-        <v>-1</v>
-      </c>
-      <c r="N12">
-        <v>-1</v>
-      </c>
-      <c r="O12">
-        <v>-1</v>
-      </c>
-      <c r="P12">
-        <v>-1</v>
-      </c>
-      <c r="Q12">
-        <v>-1</v>
-      </c>
-      <c r="R12">
-        <v>-1</v>
-      </c>
-      <c r="S12">
-        <v>-1</v>
-      </c>
-      <c r="T12">
-        <v>-1</v>
-      </c>
-      <c r="U12">
-        <v>-1</v>
-      </c>
-      <c r="V12">
-        <v>-1</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
-      <c r="Z12">
-        <v>-1</v>
-      </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
-      <c r="AC12">
-        <v>-1</v>
-      </c>
-      <c r="AD12">
-        <v>-1</v>
-      </c>
-      <c r="AE12">
-        <v>-1</v>
-      </c>
-      <c r="AF12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <v>-1</v>
-      </c>
-      <c r="C13">
-        <v>-1</v>
-      </c>
-      <c r="D13">
-        <v>-1</v>
-      </c>
-      <c r="E13">
-        <v>-1</v>
-      </c>
-      <c r="F13">
-        <v>-1</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-      <c r="H13">
-        <v>-1</v>
-      </c>
-      <c r="I13">
-        <v>-1</v>
-      </c>
-      <c r="J13">
-        <v>-1</v>
-      </c>
-      <c r="K13">
-        <v>-1</v>
-      </c>
-      <c r="L13">
-        <v>-1</v>
-      </c>
-      <c r="M13">
-        <v>-1</v>
-      </c>
-      <c r="N13">
-        <v>-1</v>
-      </c>
-      <c r="O13">
-        <v>-1</v>
-      </c>
-      <c r="P13">
-        <v>-1</v>
-      </c>
-      <c r="Q13">
-        <v>-1</v>
-      </c>
-      <c r="R13">
-        <v>-1</v>
-      </c>
-      <c r="S13">
-        <v>-1</v>
-      </c>
-      <c r="T13">
-        <v>-1</v>
-      </c>
-      <c r="U13">
-        <v>-1</v>
-      </c>
-      <c r="V13">
-        <v>-1</v>
-      </c>
-      <c r="W13">
-        <v>-1</v>
-      </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>-1</v>
-      </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
-      <c r="AC13">
-        <v>-1</v>
-      </c>
-      <c r="AD13">
-        <v>-1</v>
-      </c>
-      <c r="AE13">
-        <v>-1</v>
-      </c>
-      <c r="AF13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <v>-1</v>
-      </c>
-      <c r="C14">
-        <v>-1</v>
-      </c>
-      <c r="D14">
-        <v>-1</v>
-      </c>
-      <c r="E14">
-        <v>-1</v>
-      </c>
-      <c r="F14">
-        <v>-1</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-      <c r="H14">
-        <v>-1</v>
-      </c>
-      <c r="I14">
-        <v>-1</v>
-      </c>
-      <c r="J14">
-        <v>-1</v>
-      </c>
-      <c r="K14">
-        <v>-1</v>
-      </c>
-      <c r="L14">
-        <v>-1</v>
-      </c>
-      <c r="M14">
-        <v>-1</v>
-      </c>
-      <c r="N14">
-        <v>-1</v>
-      </c>
-      <c r="O14">
-        <v>-1</v>
-      </c>
-      <c r="P14">
-        <v>-1</v>
-      </c>
-      <c r="Q14">
-        <v>-1</v>
-      </c>
-      <c r="R14">
-        <v>-1</v>
-      </c>
-      <c r="S14">
-        <v>-1</v>
-      </c>
-      <c r="T14">
-        <v>-1</v>
-      </c>
-      <c r="U14">
-        <v>-1</v>
-      </c>
-      <c r="V14">
-        <v>-1</v>
-      </c>
-      <c r="W14">
-        <v>-1</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>-1</v>
-      </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
-      </c>
-      <c r="AD14">
-        <v>-1</v>
-      </c>
-      <c r="AE14">
-        <v>-1</v>
-      </c>
-      <c r="AF14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15">
-        <v>-1</v>
-      </c>
-      <c r="C15">
-        <v>-1</v>
-      </c>
-      <c r="D15">
-        <v>-1</v>
-      </c>
-      <c r="E15">
-        <v>-1</v>
-      </c>
-      <c r="F15">
-        <v>-1</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-      <c r="H15">
-        <v>-1</v>
-      </c>
-      <c r="I15">
-        <v>-1</v>
-      </c>
-      <c r="J15">
-        <v>-1</v>
-      </c>
-      <c r="K15">
-        <v>-1</v>
-      </c>
-      <c r="L15">
-        <v>-1</v>
-      </c>
-      <c r="M15">
-        <v>-1</v>
-      </c>
-      <c r="N15">
-        <v>-1</v>
-      </c>
-      <c r="O15">
-        <v>-1</v>
-      </c>
-      <c r="P15">
-        <v>-1</v>
-      </c>
-      <c r="Q15">
-        <v>-1</v>
-      </c>
-      <c r="R15">
-        <v>-1</v>
-      </c>
-      <c r="S15">
-        <v>-1</v>
-      </c>
-      <c r="T15">
-        <v>-1</v>
-      </c>
-      <c r="U15">
-        <v>-1</v>
-      </c>
-      <c r="V15">
-        <v>-1</v>
-      </c>
-      <c r="W15">
-        <v>-1</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
-      </c>
-      <c r="Z15">
-        <v>-1</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
-      </c>
-      <c r="AD15">
-        <v>-1</v>
-      </c>
-      <c r="AE15">
-        <v>-1</v>
-      </c>
-      <c r="AF15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16">
-        <v>-1</v>
-      </c>
-      <c r="C16">
-        <v>-1</v>
-      </c>
-      <c r="D16">
-        <v>-1</v>
-      </c>
-      <c r="E16">
-        <v>-1</v>
-      </c>
-      <c r="F16">
-        <v>-1</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-      <c r="H16">
-        <v>-1</v>
-      </c>
-      <c r="I16">
-        <v>-1</v>
-      </c>
-      <c r="J16">
-        <v>-1</v>
-      </c>
-      <c r="K16">
-        <v>-1</v>
-      </c>
-      <c r="L16">
-        <v>-1</v>
-      </c>
-      <c r="M16">
-        <v>-1</v>
-      </c>
-      <c r="N16">
-        <v>-1</v>
-      </c>
-      <c r="O16">
-        <v>-1</v>
-      </c>
-      <c r="P16">
-        <v>-1</v>
-      </c>
-      <c r="Q16">
-        <v>-1</v>
-      </c>
-      <c r="R16">
-        <v>-1</v>
-      </c>
-      <c r="S16">
-        <v>-1</v>
-      </c>
-      <c r="T16">
-        <v>-1</v>
-      </c>
-      <c r="U16">
-        <v>-1</v>
-      </c>
-      <c r="V16">
-        <v>-1</v>
-      </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>-1</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
-      <c r="AC16">
-        <v>-1</v>
-      </c>
-      <c r="AD16">
-        <v>-1</v>
-      </c>
-      <c r="AE16">
-        <v>-1</v>
-      </c>
-      <c r="AF16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17">
-        <v>-1</v>
-      </c>
-      <c r="C17">
-        <v>-1</v>
-      </c>
-      <c r="D17">
-        <v>-1</v>
-      </c>
-      <c r="E17">
-        <v>-1</v>
-      </c>
-      <c r="F17">
-        <v>-1</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-      <c r="H17">
-        <v>-1</v>
-      </c>
-      <c r="I17">
-        <v>-1</v>
-      </c>
-      <c r="J17">
-        <v>-1</v>
-      </c>
-      <c r="K17">
-        <v>-1</v>
-      </c>
-      <c r="L17">
-        <v>-1</v>
-      </c>
-      <c r="M17">
-        <v>-1</v>
-      </c>
-      <c r="N17">
-        <v>-1</v>
-      </c>
-      <c r="O17">
-        <v>-1</v>
-      </c>
-      <c r="P17">
-        <v>-1</v>
-      </c>
-      <c r="Q17">
-        <v>-1</v>
-      </c>
-      <c r="R17">
-        <v>-1</v>
-      </c>
-      <c r="S17">
-        <v>-1</v>
-      </c>
-      <c r="T17">
-        <v>-1</v>
-      </c>
-      <c r="U17">
-        <v>-1</v>
-      </c>
-      <c r="V17">
-        <v>-1</v>
-      </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
-      <c r="Z17">
-        <v>-1</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
-      <c r="AC17">
-        <v>-1</v>
-      </c>
-      <c r="AD17">
-        <v>-1</v>
-      </c>
-      <c r="AE17">
-        <v>-1</v>
-      </c>
-      <c r="AF17">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2380,17 +1118,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D035808-F0BF-415F-A796-7B27BE457387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E636F4FF-3519-4D1A-B2AD-0AD071209429}">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -2485,203 +1225,265 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2">
+        <f>Sheet1!B2</f>
         <v>-1</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <f>Sheet1!C2</f>
+        <v>0.1</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <f>Sheet1!D2</f>
+        <v>0.1</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <f>Sheet1!E2</f>
+        <v>0.1</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <f>Sheet1!F2</f>
+        <v>0.2</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <f>Sheet1!G2</f>
+        <v>0.2</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <f>Sheet1!H2</f>
+        <v>0.2</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <f>Sheet1!I2</f>
+        <v>0.2</v>
       </c>
       <c r="J2">
-        <v>-1</v>
+        <f>Sheet1!J2</f>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>-1</v>
+        <f>Sheet1!K2</f>
+        <v>0.2</v>
       </c>
       <c r="L2">
-        <v>-1</v>
+        <f>Sheet1!L2</f>
+        <v>0.2</v>
       </c>
       <c r="M2">
-        <v>-1</v>
+        <f>Sheet1!M2</f>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>-1</v>
+        <f>Sheet1!N2</f>
+        <v>0.2</v>
       </c>
       <c r="O2">
-        <v>-1</v>
+        <f>Sheet1!O2</f>
+        <v>0.2</v>
       </c>
       <c r="P2">
-        <v>-1</v>
+        <f>Sheet1!P2</f>
+        <v>0.2</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <f>Sheet1!Q2</f>
+        <v>0.2</v>
       </c>
       <c r="R2">
-        <v>-1</v>
+        <f>Sheet1!R2</f>
+        <v>0.2</v>
       </c>
       <c r="S2">
-        <v>-1</v>
+        <f>Sheet1!S2</f>
+        <v>0.2</v>
       </c>
       <c r="T2">
-        <v>-1</v>
+        <f>Sheet1!T2</f>
+        <v>0.2</v>
       </c>
       <c r="U2">
-        <v>-1</v>
+        <f>Sheet1!U2</f>
+        <v>0.2</v>
       </c>
       <c r="V2">
-        <v>-1</v>
+        <f>Sheet1!V2</f>
+        <v>0.2</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <f>Sheet1!W2</f>
+        <v>0.2</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <f>Sheet1!X2</f>
+        <v>0.2</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <f>Sheet1!Y2</f>
+        <v>0.2</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <f>Sheet1!Z2</f>
+        <v>0.2</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <f>Sheet1!AA2</f>
+        <v>0.2</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <f>Sheet1!AB2</f>
+        <v>0.2</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <f>Sheet1!AC2</f>
+        <v>0.2</v>
       </c>
       <c r="AD2">
-        <v>-1</v>
+        <f>Sheet1!AD2</f>
+        <v>0.2</v>
       </c>
       <c r="AE2">
-        <v>-1</v>
+        <f>Sheet1!AE2</f>
+        <v>0.2</v>
       </c>
       <c r="AF2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+        <f>Sheet1!AF2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <f>Sheet1!B3</f>
+        <v>0.8</v>
       </c>
       <c r="C3">
+        <f>Sheet1!C3</f>
         <v>-1</v>
       </c>
       <c r="D3">
+        <f>Sheet1!D3</f>
         <v>-1</v>
       </c>
       <c r="E3">
+        <f>Sheet1!E3</f>
         <v>-1</v>
       </c>
       <c r="F3">
+        <f>Sheet1!F3</f>
         <v>-1</v>
       </c>
       <c r="G3">
+        <f>Sheet1!G3</f>
         <v>-1</v>
       </c>
       <c r="H3">
+        <f>Sheet1!H3</f>
         <v>-1</v>
       </c>
       <c r="I3">
+        <f>Sheet1!I3</f>
         <v>-1</v>
       </c>
       <c r="J3">
+        <f>Sheet1!J3</f>
         <v>-1</v>
       </c>
       <c r="K3">
+        <f>Sheet1!K3</f>
         <v>-1</v>
       </c>
       <c r="L3">
+        <f>Sheet1!L3</f>
         <v>-1</v>
       </c>
       <c r="M3">
+        <f>Sheet1!M3</f>
         <v>-1</v>
       </c>
       <c r="N3">
+        <f>Sheet1!N3</f>
         <v>-1</v>
       </c>
       <c r="O3">
+        <f>Sheet1!O3</f>
         <v>-1</v>
       </c>
       <c r="P3">
+        <f>Sheet1!P3</f>
         <v>-1</v>
       </c>
       <c r="Q3">
+        <f>Sheet1!Q3</f>
         <v>-1</v>
       </c>
       <c r="R3">
+        <f>Sheet1!R3</f>
         <v>-1</v>
       </c>
       <c r="S3">
+        <f>Sheet1!S3</f>
         <v>-1</v>
       </c>
       <c r="T3">
+        <f>Sheet1!T3</f>
         <v>-1</v>
       </c>
       <c r="U3">
+        <f>Sheet1!U3</f>
         <v>-1</v>
       </c>
       <c r="V3">
+        <f>Sheet1!V3</f>
         <v>-1</v>
       </c>
       <c r="W3">
+        <f>Sheet1!W3</f>
         <v>-1</v>
       </c>
       <c r="X3">
+        <f>Sheet1!X3</f>
         <v>-1</v>
       </c>
       <c r="Y3">
+        <f>Sheet1!Y3</f>
         <v>-1</v>
       </c>
       <c r="Z3">
+        <f>Sheet1!Z3</f>
         <v>-1</v>
       </c>
       <c r="AA3">
+        <f>Sheet1!AA3</f>
         <v>-1</v>
       </c>
       <c r="AB3">
+        <f>Sheet1!AB3</f>
         <v>-1</v>
       </c>
       <c r="AC3">
+        <f>Sheet1!AC3</f>
         <v>-1</v>
       </c>
       <c r="AD3">
+        <f>Sheet1!AD3</f>
         <v>-1</v>
       </c>
       <c r="AE3">
+        <f>Sheet1!AE3</f>
         <v>-1</v>
       </c>
       <c r="AF3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+        <f>Sheet1!AF3</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2779,7 +1581,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2877,7 +1679,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2975,7 +1777,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -3073,7 +1875,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3171,7 +1973,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -3269,7 +2071,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3367,7 +2169,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3465,7 +2267,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3563,105 +2365,136 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
       <c r="B13">
+        <f>Sheet1!B4</f>
         <v>-1</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <f>Sheet1!C4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <f>Sheet1!D4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <f>Sheet1!E4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <f>Sheet1!F4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <f>Sheet1!G4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <f>Sheet1!H4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <f>Sheet1!I4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <f>Sheet1!J4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <f>Sheet1!K4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <f>Sheet1!L4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <f>Sheet1!M4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N13">
-        <v>-1</v>
+        <f>Sheet1!N4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <f>Sheet1!O4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <f>Sheet1!P4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <f>Sheet1!Q4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <f>Sheet1!R4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="S13">
-        <v>-1</v>
+        <f>Sheet1!S4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <f>Sheet1!T4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <f>Sheet1!U4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <f>Sheet1!V4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <f>Sheet1!W4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <f>Sheet1!X4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <f>Sheet1!Y4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <f>Sheet1!Z4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <f>Sheet1!AA4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <f>Sheet1!AB4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <f>Sheet1!AC4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD13">
-        <v>-1</v>
+        <f>Sheet1!AD4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE13">
-        <v>-1</v>
+        <f>Sheet1!AE4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AF13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+        <f>Sheet1!AF4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3759,7 +2592,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3857,7 +2690,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3955,7 +2788,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -4059,17 +2892,1731 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D035808-F0BF-415F-A796-7B27BE457387}">
+  <dimension ref="A1:AF17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AF2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+      <c r="E1">
+        <v>2023</v>
+      </c>
+      <c r="F1">
+        <v>2024</v>
+      </c>
+      <c r="G1">
+        <v>2025</v>
+      </c>
+      <c r="H1">
+        <v>2026</v>
+      </c>
+      <c r="I1">
+        <v>2027</v>
+      </c>
+      <c r="J1">
+        <v>2028</v>
+      </c>
+      <c r="K1">
+        <v>2029</v>
+      </c>
+      <c r="L1">
+        <v>2030</v>
+      </c>
+      <c r="M1">
+        <v>2031</v>
+      </c>
+      <c r="N1">
+        <v>2032</v>
+      </c>
+      <c r="O1">
+        <v>2033</v>
+      </c>
+      <c r="P1">
+        <v>2034</v>
+      </c>
+      <c r="Q1">
+        <v>2035</v>
+      </c>
+      <c r="R1">
+        <v>2036</v>
+      </c>
+      <c r="S1">
+        <v>2037</v>
+      </c>
+      <c r="T1">
+        <v>2038</v>
+      </c>
+      <c r="U1">
+        <v>2039</v>
+      </c>
+      <c r="V1">
+        <v>2040</v>
+      </c>
+      <c r="W1">
+        <v>2041</v>
+      </c>
+      <c r="X1">
+        <v>2042</v>
+      </c>
+      <c r="Y1">
+        <v>2043</v>
+      </c>
+      <c r="Z1">
+        <v>2044</v>
+      </c>
+      <c r="AA1">
+        <v>2045</v>
+      </c>
+      <c r="AB1">
+        <v>2046</v>
+      </c>
+      <c r="AC1">
+        <v>2047</v>
+      </c>
+      <c r="AD1">
+        <v>2048</v>
+      </c>
+      <c r="AE1">
+        <v>2049</v>
+      </c>
+      <c r="AF1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2">
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>-1</v>
+      </c>
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
+        <v>-1</v>
+      </c>
+      <c r="M2">
+        <v>-1</v>
+      </c>
+      <c r="N2">
+        <v>-1</v>
+      </c>
+      <c r="O2">
+        <v>-1</v>
+      </c>
+      <c r="P2">
+        <v>-1</v>
+      </c>
+      <c r="Q2">
+        <v>-1</v>
+      </c>
+      <c r="R2">
+        <v>-1</v>
+      </c>
+      <c r="S2">
+        <v>-1</v>
+      </c>
+      <c r="T2">
+        <v>-1</v>
+      </c>
+      <c r="U2">
+        <v>-1</v>
+      </c>
+      <c r="V2">
+        <v>-1</v>
+      </c>
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
+        <v>-1</v>
+      </c>
+      <c r="AC2">
+        <v>-1</v>
+      </c>
+      <c r="AD2">
+        <v>-1</v>
+      </c>
+      <c r="AE2">
+        <v>-1</v>
+      </c>
+      <c r="AF2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <f>Sheet1!B3</f>
+        <v>0.8</v>
+      </c>
+      <c r="C3">
+        <f>Sheet1!C3</f>
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <f>Sheet1!D3</f>
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <f>Sheet1!E3</f>
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <f>Sheet1!F3</f>
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <f>Sheet1!G3</f>
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <f>Sheet1!H3</f>
+        <v>-1</v>
+      </c>
+      <c r="I3">
+        <f>Sheet1!I3</f>
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <f>Sheet1!J3</f>
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <f>Sheet1!K3</f>
+        <v>-1</v>
+      </c>
+      <c r="L3">
+        <f>Sheet1!L3</f>
+        <v>-1</v>
+      </c>
+      <c r="M3">
+        <f>Sheet1!M3</f>
+        <v>-1</v>
+      </c>
+      <c r="N3">
+        <f>Sheet1!N3</f>
+        <v>-1</v>
+      </c>
+      <c r="O3">
+        <f>Sheet1!O3</f>
+        <v>-1</v>
+      </c>
+      <c r="P3">
+        <f>Sheet1!P3</f>
+        <v>-1</v>
+      </c>
+      <c r="Q3">
+        <f>Sheet1!Q3</f>
+        <v>-1</v>
+      </c>
+      <c r="R3">
+        <f>Sheet1!R3</f>
+        <v>-1</v>
+      </c>
+      <c r="S3">
+        <f>Sheet1!S3</f>
+        <v>-1</v>
+      </c>
+      <c r="T3">
+        <f>Sheet1!T3</f>
+        <v>-1</v>
+      </c>
+      <c r="U3">
+        <f>Sheet1!U3</f>
+        <v>-1</v>
+      </c>
+      <c r="V3">
+        <f>Sheet1!V3</f>
+        <v>-1</v>
+      </c>
+      <c r="W3">
+        <f>Sheet1!W3</f>
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <f>Sheet1!X3</f>
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <f>Sheet1!Y3</f>
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <f>Sheet1!Z3</f>
+        <v>-1</v>
+      </c>
+      <c r="AA3">
+        <f>Sheet1!AA3</f>
+        <v>-1</v>
+      </c>
+      <c r="AB3">
+        <f>Sheet1!AB3</f>
+        <v>-1</v>
+      </c>
+      <c r="AC3">
+        <f>Sheet1!AC3</f>
+        <v>-1</v>
+      </c>
+      <c r="AD3">
+        <f>Sheet1!AD3</f>
+        <v>-1</v>
+      </c>
+      <c r="AE3">
+        <f>Sheet1!AE3</f>
+        <v>-1</v>
+      </c>
+      <c r="AF3">
+        <f>Sheet1!AF3</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
+      </c>
+      <c r="N4">
+        <v>-1</v>
+      </c>
+      <c r="O4">
+        <v>-1</v>
+      </c>
+      <c r="P4">
+        <v>-1</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4">
+        <v>-1</v>
+      </c>
+      <c r="S4">
+        <v>-1</v>
+      </c>
+      <c r="T4">
+        <v>-1</v>
+      </c>
+      <c r="U4">
+        <v>-1</v>
+      </c>
+      <c r="V4">
+        <v>-1</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
+        <v>-1</v>
+      </c>
+      <c r="AA4">
+        <v>-1</v>
+      </c>
+      <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
+        <v>-1</v>
+      </c>
+      <c r="AD4">
+        <v>-1</v>
+      </c>
+      <c r="AE4">
+        <v>-1</v>
+      </c>
+      <c r="AF4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <v>-1</v>
+      </c>
+      <c r="M5">
+        <v>-1</v>
+      </c>
+      <c r="N5">
+        <v>-1</v>
+      </c>
+      <c r="O5">
+        <v>-1</v>
+      </c>
+      <c r="P5">
+        <v>-1</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>-1</v>
+      </c>
+      <c r="S5">
+        <v>-1</v>
+      </c>
+      <c r="T5">
+        <v>-1</v>
+      </c>
+      <c r="U5">
+        <v>-1</v>
+      </c>
+      <c r="V5">
+        <v>-1</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
+        <v>-1</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
+        <v>-1</v>
+      </c>
+      <c r="AD5">
+        <v>-1</v>
+      </c>
+      <c r="AE5">
+        <v>-1</v>
+      </c>
+      <c r="AF5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>-1</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <v>-1</v>
+      </c>
+      <c r="P6">
+        <v>-1</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <v>-1</v>
+      </c>
+      <c r="S6">
+        <v>-1</v>
+      </c>
+      <c r="T6">
+        <v>-1</v>
+      </c>
+      <c r="U6">
+        <v>-1</v>
+      </c>
+      <c r="V6">
+        <v>-1</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
+        <v>-1</v>
+      </c>
+      <c r="Z6">
+        <v>-1</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
+        <v>-1</v>
+      </c>
+      <c r="AD6">
+        <v>-1</v>
+      </c>
+      <c r="AE6">
+        <v>-1</v>
+      </c>
+      <c r="AF6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7">
+        <v>-1</v>
+      </c>
+      <c r="O7">
+        <v>-1</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+      <c r="R7">
+        <v>-1</v>
+      </c>
+      <c r="S7">
+        <v>-1</v>
+      </c>
+      <c r="T7">
+        <v>-1</v>
+      </c>
+      <c r="U7">
+        <v>-1</v>
+      </c>
+      <c r="V7">
+        <v>-1</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
+        <v>-1</v>
+      </c>
+      <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
+        <v>-1</v>
+      </c>
+      <c r="AD7">
+        <v>-1</v>
+      </c>
+      <c r="AE7">
+        <v>-1</v>
+      </c>
+      <c r="AF7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="N8">
+        <v>-1</v>
+      </c>
+      <c r="O8">
+        <v>-1</v>
+      </c>
+      <c r="P8">
+        <v>-1</v>
+      </c>
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+      <c r="R8">
+        <v>-1</v>
+      </c>
+      <c r="S8">
+        <v>-1</v>
+      </c>
+      <c r="T8">
+        <v>-1</v>
+      </c>
+      <c r="U8">
+        <v>-1</v>
+      </c>
+      <c r="V8">
+        <v>-1</v>
+      </c>
+      <c r="W8">
+        <v>-1</v>
+      </c>
+      <c r="X8">
+        <v>-1</v>
+      </c>
+      <c r="Y8">
+        <v>-1</v>
+      </c>
+      <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
+        <v>-1</v>
+      </c>
+      <c r="AD8">
+        <v>-1</v>
+      </c>
+      <c r="AE8">
+        <v>-1</v>
+      </c>
+      <c r="AF8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
+      <c r="N9">
+        <v>-1</v>
+      </c>
+      <c r="O9">
+        <v>-1</v>
+      </c>
+      <c r="P9">
+        <v>-1</v>
+      </c>
+      <c r="Q9">
+        <v>-1</v>
+      </c>
+      <c r="R9">
+        <v>-1</v>
+      </c>
+      <c r="S9">
+        <v>-1</v>
+      </c>
+      <c r="T9">
+        <v>-1</v>
+      </c>
+      <c r="U9">
+        <v>-1</v>
+      </c>
+      <c r="V9">
+        <v>-1</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
+        <v>-1</v>
+      </c>
+      <c r="AD9">
+        <v>-1</v>
+      </c>
+      <c r="AE9">
+        <v>-1</v>
+      </c>
+      <c r="AF9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
+      </c>
+      <c r="N10">
+        <v>-1</v>
+      </c>
+      <c r="O10">
+        <v>-1</v>
+      </c>
+      <c r="P10">
+        <v>-1</v>
+      </c>
+      <c r="Q10">
+        <v>-1</v>
+      </c>
+      <c r="R10">
+        <v>-1</v>
+      </c>
+      <c r="S10">
+        <v>-1</v>
+      </c>
+      <c r="T10">
+        <v>-1</v>
+      </c>
+      <c r="U10">
+        <v>-1</v>
+      </c>
+      <c r="V10">
+        <v>-1</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>-1</v>
+      </c>
+      <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
+        <v>-1</v>
+      </c>
+      <c r="AD10">
+        <v>-1</v>
+      </c>
+      <c r="AE10">
+        <v>-1</v>
+      </c>
+      <c r="AF10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>-1</v>
+      </c>
+      <c r="N11">
+        <v>-1</v>
+      </c>
+      <c r="O11">
+        <v>-1</v>
+      </c>
+      <c r="P11">
+        <v>-1</v>
+      </c>
+      <c r="Q11">
+        <v>-1</v>
+      </c>
+      <c r="R11">
+        <v>-1</v>
+      </c>
+      <c r="S11">
+        <v>-1</v>
+      </c>
+      <c r="T11">
+        <v>-1</v>
+      </c>
+      <c r="U11">
+        <v>-1</v>
+      </c>
+      <c r="V11">
+        <v>-1</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
+        <v>-1</v>
+      </c>
+      <c r="AD11">
+        <v>-1</v>
+      </c>
+      <c r="AE11">
+        <v>-1</v>
+      </c>
+      <c r="AF11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12">
+        <v>-1</v>
+      </c>
+      <c r="N12">
+        <v>-1</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
+      </c>
+      <c r="P12">
+        <v>-1</v>
+      </c>
+      <c r="Q12">
+        <v>-1</v>
+      </c>
+      <c r="R12">
+        <v>-1</v>
+      </c>
+      <c r="S12">
+        <v>-1</v>
+      </c>
+      <c r="T12">
+        <v>-1</v>
+      </c>
+      <c r="U12">
+        <v>-1</v>
+      </c>
+      <c r="V12">
+        <v>-1</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
+        <v>-1</v>
+      </c>
+      <c r="AD12">
+        <v>-1</v>
+      </c>
+      <c r="AE12">
+        <v>-1</v>
+      </c>
+      <c r="AF12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+      <c r="I13">
+        <v>-1</v>
+      </c>
+      <c r="J13">
+        <v>-1</v>
+      </c>
+      <c r="K13">
+        <v>-1</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+      <c r="N13">
+        <v>-1</v>
+      </c>
+      <c r="O13">
+        <v>-1</v>
+      </c>
+      <c r="P13">
+        <v>-1</v>
+      </c>
+      <c r="Q13">
+        <v>-1</v>
+      </c>
+      <c r="R13">
+        <v>-1</v>
+      </c>
+      <c r="S13">
+        <v>-1</v>
+      </c>
+      <c r="T13">
+        <v>-1</v>
+      </c>
+      <c r="U13">
+        <v>-1</v>
+      </c>
+      <c r="V13">
+        <v>-1</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
+        <v>-1</v>
+      </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
+        <v>-1</v>
+      </c>
+      <c r="AD13">
+        <v>-1</v>
+      </c>
+      <c r="AE13">
+        <v>-1</v>
+      </c>
+      <c r="AF13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+      <c r="N14">
+        <v>-1</v>
+      </c>
+      <c r="O14">
+        <v>-1</v>
+      </c>
+      <c r="P14">
+        <v>-1</v>
+      </c>
+      <c r="Q14">
+        <v>-1</v>
+      </c>
+      <c r="R14">
+        <v>-1</v>
+      </c>
+      <c r="S14">
+        <v>-1</v>
+      </c>
+      <c r="T14">
+        <v>-1</v>
+      </c>
+      <c r="U14">
+        <v>-1</v>
+      </c>
+      <c r="V14">
+        <v>-1</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
+        <v>-1</v>
+      </c>
+      <c r="AD14">
+        <v>-1</v>
+      </c>
+      <c r="AE14">
+        <v>-1</v>
+      </c>
+      <c r="AF14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>-1</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <v>-1</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+      <c r="J15">
+        <v>-1</v>
+      </c>
+      <c r="K15">
+        <v>-1</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="N15">
+        <v>-1</v>
+      </c>
+      <c r="O15">
+        <v>-1</v>
+      </c>
+      <c r="P15">
+        <v>-1</v>
+      </c>
+      <c r="Q15">
+        <v>-1</v>
+      </c>
+      <c r="R15">
+        <v>-1</v>
+      </c>
+      <c r="S15">
+        <v>-1</v>
+      </c>
+      <c r="T15">
+        <v>-1</v>
+      </c>
+      <c r="U15">
+        <v>-1</v>
+      </c>
+      <c r="V15">
+        <v>-1</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
+        <v>-1</v>
+      </c>
+      <c r="Z15">
+        <v>-1</v>
+      </c>
+      <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
+        <v>-1</v>
+      </c>
+      <c r="AD15">
+        <v>-1</v>
+      </c>
+      <c r="AE15">
+        <v>-1</v>
+      </c>
+      <c r="AF15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+      <c r="H16">
+        <v>-1</v>
+      </c>
+      <c r="I16">
+        <v>-1</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <v>-1</v>
+      </c>
+      <c r="M16">
+        <v>-1</v>
+      </c>
+      <c r="N16">
+        <v>-1</v>
+      </c>
+      <c r="O16">
+        <v>-1</v>
+      </c>
+      <c r="P16">
+        <v>-1</v>
+      </c>
+      <c r="Q16">
+        <v>-1</v>
+      </c>
+      <c r="R16">
+        <v>-1</v>
+      </c>
+      <c r="S16">
+        <v>-1</v>
+      </c>
+      <c r="T16">
+        <v>-1</v>
+      </c>
+      <c r="U16">
+        <v>-1</v>
+      </c>
+      <c r="V16">
+        <v>-1</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
+        <v>-1</v>
+      </c>
+      <c r="AD16">
+        <v>-1</v>
+      </c>
+      <c r="AE16">
+        <v>-1</v>
+      </c>
+      <c r="AF16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="F17">
+        <v>-1</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <v>-1</v>
+      </c>
+      <c r="J17">
+        <v>-1</v>
+      </c>
+      <c r="K17">
+        <v>-1</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <v>-1</v>
+      </c>
+      <c r="N17">
+        <v>-1</v>
+      </c>
+      <c r="O17">
+        <v>-1</v>
+      </c>
+      <c r="P17">
+        <v>-1</v>
+      </c>
+      <c r="Q17">
+        <v>-1</v>
+      </c>
+      <c r="R17">
+        <v>-1</v>
+      </c>
+      <c r="S17">
+        <v>-1</v>
+      </c>
+      <c r="T17">
+        <v>-1</v>
+      </c>
+      <c r="U17">
+        <v>-1</v>
+      </c>
+      <c r="V17">
+        <v>-1</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17">
+        <v>-1</v>
+      </c>
+      <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
+        <v>-1</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
+        <v>-1</v>
+      </c>
+      <c r="AD17">
+        <v>-1</v>
+      </c>
+      <c r="AE17">
+        <v>-1</v>
+      </c>
+      <c r="AF17">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066B77CF-C19A-4008-9E91-743E5A61A132}">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:AF13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -4164,203 +4711,265 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2">
+        <f>Sheet1!B2</f>
         <v>-1</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <f>Sheet1!C2</f>
+        <v>0.1</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <f>Sheet1!D2</f>
+        <v>0.1</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <f>Sheet1!E2</f>
+        <v>0.1</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <f>Sheet1!F2</f>
+        <v>0.2</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <f>Sheet1!G2</f>
+        <v>0.2</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <f>Sheet1!H2</f>
+        <v>0.2</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <f>Sheet1!I2</f>
+        <v>0.2</v>
       </c>
       <c r="J2">
-        <v>-1</v>
+        <f>Sheet1!J2</f>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>-1</v>
+        <f>Sheet1!K2</f>
+        <v>0.2</v>
       </c>
       <c r="L2">
-        <v>-1</v>
+        <f>Sheet1!L2</f>
+        <v>0.2</v>
       </c>
       <c r="M2">
-        <v>-1</v>
+        <f>Sheet1!M2</f>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>-1</v>
+        <f>Sheet1!N2</f>
+        <v>0.2</v>
       </c>
       <c r="O2">
-        <v>-1</v>
+        <f>Sheet1!O2</f>
+        <v>0.2</v>
       </c>
       <c r="P2">
-        <v>-1</v>
+        <f>Sheet1!P2</f>
+        <v>0.2</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <f>Sheet1!Q2</f>
+        <v>0.2</v>
       </c>
       <c r="R2">
-        <v>-1</v>
+        <f>Sheet1!R2</f>
+        <v>0.2</v>
       </c>
       <c r="S2">
-        <v>-1</v>
+        <f>Sheet1!S2</f>
+        <v>0.2</v>
       </c>
       <c r="T2">
-        <v>-1</v>
+        <f>Sheet1!T2</f>
+        <v>0.2</v>
       </c>
       <c r="U2">
-        <v>-1</v>
+        <f>Sheet1!U2</f>
+        <v>0.2</v>
       </c>
       <c r="V2">
-        <v>-1</v>
+        <f>Sheet1!V2</f>
+        <v>0.2</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <f>Sheet1!W2</f>
+        <v>0.2</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <f>Sheet1!X2</f>
+        <v>0.2</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <f>Sheet1!Y2</f>
+        <v>0.2</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <f>Sheet1!Z2</f>
+        <v>0.2</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <f>Sheet1!AA2</f>
+        <v>0.2</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <f>Sheet1!AB2</f>
+        <v>0.2</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <f>Sheet1!AC2</f>
+        <v>0.2</v>
       </c>
       <c r="AD2">
-        <v>-1</v>
+        <f>Sheet1!AD2</f>
+        <v>0.2</v>
       </c>
       <c r="AE2">
-        <v>-1</v>
+        <f>Sheet1!AE2</f>
+        <v>0.2</v>
       </c>
       <c r="AF2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+        <f>Sheet1!AF2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <f>Sheet1!B3</f>
+        <v>0.8</v>
       </c>
       <c r="C3">
+        <f>Sheet1!C3</f>
         <v>-1</v>
       </c>
       <c r="D3">
+        <f>Sheet1!D3</f>
         <v>-1</v>
       </c>
       <c r="E3">
+        <f>Sheet1!E3</f>
         <v>-1</v>
       </c>
       <c r="F3">
+        <f>Sheet1!F3</f>
         <v>-1</v>
       </c>
       <c r="G3">
+        <f>Sheet1!G3</f>
         <v>-1</v>
       </c>
       <c r="H3">
+        <f>Sheet1!H3</f>
         <v>-1</v>
       </c>
       <c r="I3">
+        <f>Sheet1!I3</f>
         <v>-1</v>
       </c>
       <c r="J3">
+        <f>Sheet1!J3</f>
         <v>-1</v>
       </c>
       <c r="K3">
+        <f>Sheet1!K3</f>
         <v>-1</v>
       </c>
       <c r="L3">
+        <f>Sheet1!L3</f>
         <v>-1</v>
       </c>
       <c r="M3">
+        <f>Sheet1!M3</f>
         <v>-1</v>
       </c>
       <c r="N3">
+        <f>Sheet1!N3</f>
         <v>-1</v>
       </c>
       <c r="O3">
+        <f>Sheet1!O3</f>
         <v>-1</v>
       </c>
       <c r="P3">
+        <f>Sheet1!P3</f>
         <v>-1</v>
       </c>
       <c r="Q3">
+        <f>Sheet1!Q3</f>
         <v>-1</v>
       </c>
       <c r="R3">
+        <f>Sheet1!R3</f>
         <v>-1</v>
       </c>
       <c r="S3">
+        <f>Sheet1!S3</f>
         <v>-1</v>
       </c>
       <c r="T3">
+        <f>Sheet1!T3</f>
         <v>-1</v>
       </c>
       <c r="U3">
+        <f>Sheet1!U3</f>
         <v>-1</v>
       </c>
       <c r="V3">
+        <f>Sheet1!V3</f>
         <v>-1</v>
       </c>
       <c r="W3">
+        <f>Sheet1!W3</f>
         <v>-1</v>
       </c>
       <c r="X3">
+        <f>Sheet1!X3</f>
         <v>-1</v>
       </c>
       <c r="Y3">
+        <f>Sheet1!Y3</f>
         <v>-1</v>
       </c>
       <c r="Z3">
+        <f>Sheet1!Z3</f>
         <v>-1</v>
       </c>
       <c r="AA3">
+        <f>Sheet1!AA3</f>
         <v>-1</v>
       </c>
       <c r="AB3">
+        <f>Sheet1!AB3</f>
         <v>-1</v>
       </c>
       <c r="AC3">
+        <f>Sheet1!AC3</f>
         <v>-1</v>
       </c>
       <c r="AD3">
+        <f>Sheet1!AD3</f>
         <v>-1</v>
       </c>
       <c r="AE3">
+        <f>Sheet1!AE3</f>
         <v>-1</v>
       </c>
       <c r="AF3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+        <f>Sheet1!AF3</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -4458,7 +5067,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4556,7 +5165,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4654,7 +5263,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -4752,7 +5361,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -4850,7 +5459,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -4948,7 +5557,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -5046,7 +5655,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -5144,7 +5753,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -5242,105 +5851,136 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
       <c r="B13">
+        <f>Sheet1!B4</f>
         <v>-1</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <f>Sheet1!C4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <f>Sheet1!D4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <f>Sheet1!E4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <f>Sheet1!F4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <f>Sheet1!G4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <f>Sheet1!H4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <f>Sheet1!I4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <f>Sheet1!J4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <f>Sheet1!K4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <f>Sheet1!L4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <f>Sheet1!M4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N13">
-        <v>-1</v>
+        <f>Sheet1!N4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <f>Sheet1!O4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <f>Sheet1!P4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <f>Sheet1!Q4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <f>Sheet1!R4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="S13">
-        <v>-1</v>
+        <f>Sheet1!S4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <f>Sheet1!T4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <f>Sheet1!U4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <f>Sheet1!V4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <f>Sheet1!W4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <f>Sheet1!X4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <f>Sheet1!Y4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <f>Sheet1!Z4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <f>Sheet1!AA4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <f>Sheet1!AB4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <f>Sheet1!AC4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD13">
-        <v>-1</v>
+        <f>Sheet1!AD4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE13">
-        <v>-1</v>
+        <f>Sheet1!AE4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AF13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+        <f>Sheet1!AF4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -5438,7 +6078,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -5536,7 +6176,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -5634,7 +6274,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>37</v>
       </c>
